--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE922BF0-A460-4E9B-9355-6D431C11D114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF8ADA8-2EB5-4945-8D77-0BA3AF6FD825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
   </bookViews>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>1. Planificación</t>
   </si>
   <si>
-    <t xml:space="preserve">   1.1 Recolección de requisitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.2 Análisis de viabilidad</t>
-  </si>
-  <si>
     <t>2. Diseño</t>
   </si>
   <si>
@@ -48,12 +42,6 @@
     <t>3. Desarrollo</t>
   </si>
   <si>
-    <t xml:space="preserve">   3.1 Backend (API, base de datos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   3.2 Frontend (interfaz móvil)</t>
-  </si>
-  <si>
     <t>4. Pruebas</t>
   </si>
   <si>
@@ -73,6 +61,39 @@
   </si>
   <si>
     <t xml:space="preserve">   5.2 Documentación</t>
+  </si>
+  <si>
+    <t>1.3 Asignación de roles</t>
+  </si>
+  <si>
+    <t>1.2 Análisis de viabilidad</t>
+  </si>
+  <si>
+    <t>1.1 Recolección de requisitos</t>
+  </si>
+  <si>
+    <t>1.4 Asignación de tareas</t>
+  </si>
+  <si>
+    <t>2.1.1 Creación de mock-ups</t>
+  </si>
+  <si>
+    <t>2.1.2 Creación y definición de estilos css y tailwind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.1 Backend</t>
+  </si>
+  <si>
+    <t>3.1.1 Creación de la base de datos</t>
+  </si>
+  <si>
+    <t>3.1.2 Creación de las APIS</t>
+  </si>
+  <si>
+    <t>3.1.3 Integración apis con el backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.2 Frontend </t>
   </si>
 </sst>
 </file>
@@ -148,9 +169,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -161,6 +179,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -482,106 +503,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2A722B-616E-4DB3-BF2C-2A33C79EA3D9}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3"/>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4"/>
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
+      <c r="B14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
+      <c r="B15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="5"/>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
